--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7265,6 +7265,282 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45206.42708333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Plzen B</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:11</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:00</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:11</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/loko-vltavin-plzen/2J5OmW9l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45206.4375</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Karlovy Vary</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45206.4375</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice B</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Taborsko akademie</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:21</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:28</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:21</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Povltavska FA</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5.29</v>
+        <v>4.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>6.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.38</v>
+        <v>5.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>10.22</v>
+        <v>7.12</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.55</v>
+        <v>5.29</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.09</v>
+        <v>6.85</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.43</v>
+        <v>6.38</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.12</v>
+        <v>10.22</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.48</v>
+        <v>3.67</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.74</v>
+        <v>3.95</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:28</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.95</v>
+        <v>3.74</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:28</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,108 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Domazlice</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Pisek</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>07/10/2023 07:39</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:04</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>07/10/2023 07:39</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/domazlice-pisek/jgHvpl9D/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.33</v>
+        <v>1.74</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.44</v>
+        <v>3.87</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.44</v>
+        <v>3.57</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-motorlet-prague/2wSpFE7f/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-ceske-budejovice/GSjGaZ77/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.74</v>
+        <v>2.33</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.78</v>
+        <v>3.46</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.87</v>
+        <v>4.44</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.57</v>
+        <v>2.44</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-ceske-budejovice/GSjGaZ77/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-motorlet-prague/2wSpFE7f/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.64</v>
+        <v>1.18</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.74</v>
+        <v>1.14</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:25</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.35</v>
+        <v>6.65</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.39</v>
+        <v>8.5</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 08:18</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.22</v>
+        <v>7.79</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.36</v>
+        <v>11.59</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1.18</v>
+        <v>2.64</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.14</v>
+        <v>2.74</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 09:25</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>6.65</v>
+        <v>3.35</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>8.5</v>
+        <v>3.39</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:18</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>7.79</v>
+        <v>2.22</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>11.59</v>
+        <v>2.36</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,374 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/domazlice-pisek/jgHvpl9D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45207.42708333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Admira Prague</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:05</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:05</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-dukla-prague/rm4Q7i1K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45207.42708333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Slavia Prague B</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Bohemians 1905 B</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:40</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:51</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:51</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-bohemians-1905/0ObV6BGQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Povltavska FA</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>FK Robstav</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:40</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/povltavska-fa-fk-robstav/h8byoUg7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Hostoun</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Motorlet Prague</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:49</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:49</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-motorlet-prague/Aq9WoAv1/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.74</v>
+        <v>2.33</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.78</v>
+        <v>3.46</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.87</v>
+        <v>4.44</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.57</v>
+        <v>2.44</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-ceske-budejovice/GSjGaZ77/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-motorlet-prague/2wSpFE7f/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.33</v>
+        <v>1.74</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.44</v>
+        <v>3.87</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.44</v>
+        <v>3.57</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-motorlet-prague/2wSpFE7f/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-ceske-budejovice/GSjGaZ77/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.55</v>
+        <v>5.29</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.09</v>
+        <v>6.85</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.43</v>
+        <v>6.38</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.12</v>
+        <v>10.22</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Povltavska FA</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.29</v>
+        <v>4.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>6.38</v>
+        <v>5.43</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>10.22</v>
+        <v>7.12</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>3</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Bohemians 1905 B</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.23</v>
+        <v>2.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.66</v>
+        <v>3.18</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.94</v>
+        <v>3.79</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Vltavin</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.79</v>
+        <v>2.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.18</v>
+        <v>3.66</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.79</v>
+        <v>3.94</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.18</v>
+        <v>2.64</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.14</v>
+        <v>2.74</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 09:25</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>6.65</v>
+        <v>3.35</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>8.5</v>
+        <v>3.39</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:18</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>7.79</v>
+        <v>2.22</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>11.59</v>
+        <v>2.36</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.64</v>
+        <v>1.18</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.74</v>
+        <v>1.14</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:25</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.35</v>
+        <v>6.65</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.39</v>
+        <v>8.5</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 08:18</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.22</v>
+        <v>7.79</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.36</v>
+        <v>11.59</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.07</v>
+        <v>2.11</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4.97</v>
+        <v>2.77</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.46</v>
+        <v>3.86</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>2.11</v>
+        <v>3.07</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.77</v>
+        <v>4.97</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.86</v>
+        <v>4.46</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.95</v>
+        <v>3.74</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:28</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.48</v>
+        <v>3.67</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.74</v>
+        <v>3.95</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:28</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>FK Robstav</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.52</v>
+        <v>1.7</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.68</v>
+        <v>1.48</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>08/10/2023 15:54</t>
+          <t>08/10/2023 13:49</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.45</v>
+        <v>3.77</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.37</v>
+        <v>4.72</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>08/10/2023 15:40</t>
+          <t>08/10/2023 15:32</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.27</v>
+        <v>3.63</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.41</v>
+        <v>4.48</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 15:54</t>
+          <t>08/10/2023 13:49</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/povltavska-fa-fk-robstav/h8byoUg7/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-motorlet-prague/Aq9WoAv1/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,347 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>Povltavska FA</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>FK Robstav</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:40</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/povltavska-fa-fk-robstav/h8byoUg7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45213.42708333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bohemians 1905 B</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>Hostoun</t>
         </is>
       </c>
-      <c r="G82" t="n">
-        <v>5</v>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>14/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>14/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>14/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-hostoun/WCxEbmO6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45213.42708333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>Motorlet Prague</t>
         </is>
       </c>
-      <c r="I82" t="n">
+      <c r="G84" t="n">
         <v>2</v>
       </c>
-      <c r="J82" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>07/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>08/10/2023 13:49</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>07/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>08/10/2023 15:32</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>07/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>08/10/2023 13:49</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-motorlet-prague/Aq9WoAv1/</t>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Admira Prague</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>14/10/2023 10:13</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:43</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>14/10/2023 10:13</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-admira-prague/dfp11kvl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45213.60416666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>FK Robstav</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice B</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:05</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:34</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:05</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/fk-robstav-ceske-budejovice/vwxIc7wD/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.12</v>
+        <v>2.18</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.1</v>
+        <v>2.55</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:11</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.029999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>10.32</v>
+        <v>4.18</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>11.28</v>
+        <v>2.67</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>14.28</v>
+        <v>2.21</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:11</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.18</v>
+        <v>10.32</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.67</v>
+        <v>11.28</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.21</v>
+        <v>14.28</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.33</v>
+        <v>1.74</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.44</v>
+        <v>3.87</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.44</v>
+        <v>3.57</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-motorlet-prague/2wSpFE7f/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-ceske-budejovice/GSjGaZ77/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.74</v>
+        <v>2.33</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.78</v>
+        <v>3.46</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.87</v>
+        <v>4.44</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.57</v>
+        <v>2.44</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-ceske-budejovice/GSjGaZ77/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-motorlet-prague/2wSpFE7f/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Povltavska FA</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5.29</v>
+        <v>4.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>6.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.38</v>
+        <v>5.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>10.22</v>
+        <v>7.12</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.55</v>
+        <v>5.29</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.09</v>
+        <v>6.85</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.43</v>
+        <v>6.38</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.12</v>
+        <v>10.22</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Vltavin</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.79</v>
+        <v>2.23</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.18</v>
+        <v>3.66</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.79</v>
+        <v>3.94</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Bohemians 1905 B</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.23</v>
+        <v>2.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.66</v>
+        <v>3.18</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.94</v>
+        <v>3.79</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.35</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 10:13</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.63</v>
+        <v>3.33</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.92</v>
+        <v>2.49</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 10:13</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-hostoun/WCxEbmO6/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-admira-prague/dfp11kvl/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.35</v>
+        <v>1.96</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:13</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.33</v>
+        <v>3.63</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.6</v>
+        <v>3.81</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.49</v>
+        <v>2.92</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:13</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-admira-prague/dfp11kvl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-hostoun/WCxEbmO6/</t>
         </is>
       </c>
     </row>
@@ -8274,6 +8274,98 @@
       <c r="V85" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/fk-robstav-ceske-budejovice/vwxIc7wD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45213.75</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Karlovy Vary</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:44</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:44</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:44</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/karlovy-vary-loko-vltavin/hMwAaT80/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:11</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.18</v>
+        <v>10.32</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.67</v>
+        <v>11.28</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.21</v>
+        <v>14.28</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.1</v>
+        <v>2.55</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:11</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>9.029999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>10.32</v>
+        <v>4.18</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>11.28</v>
+        <v>2.67</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>14.28</v>
+        <v>2.21</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.98</v>
+        <v>3.36</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 15:03</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.36</v>
+        <v>3.98</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 15:03</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.74</v>
+        <v>2.33</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.78</v>
+        <v>3.46</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.87</v>
+        <v>4.44</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.57</v>
+        <v>2.44</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-ceske-budejovice/GSjGaZ77/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-motorlet-prague/2wSpFE7f/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.33</v>
+        <v>1.74</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.44</v>
+        <v>3.87</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.44</v>
+        <v>3.57</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-motorlet-prague/2wSpFE7f/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-ceske-budejovice/GSjGaZ77/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.55</v>
+        <v>5.29</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.09</v>
+        <v>6.85</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.43</v>
+        <v>6.38</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.12</v>
+        <v>10.22</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Povltavska FA</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.29</v>
+        <v>4.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>6.38</v>
+        <v>5.43</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>10.22</v>
+        <v>7.12</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>3</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Bohemians 1905 B</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.23</v>
+        <v>2.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.66</v>
+        <v>3.18</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.94</v>
+        <v>3.79</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Vltavin</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.79</v>
+        <v>2.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.18</v>
+        <v>3.66</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.79</v>
+        <v>3.94</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.48</v>
+        <v>3.67</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.74</v>
+        <v>3.95</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:28</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.95</v>
+        <v>3.74</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:28</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.35</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:13</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.33</v>
+        <v>3.63</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.6</v>
+        <v>3.81</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.49</v>
+        <v>2.92</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:13</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-admira-prague/dfp11kvl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-hostoun/WCxEbmO6/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.96</v>
+        <v>2.35</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 10:13</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.63</v>
+        <v>3.33</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.92</v>
+        <v>2.49</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 10:13</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-hostoun/WCxEbmO6/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-admira-prague/dfp11kvl/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,282 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/karlovy-vary-loko-vltavin/hMwAaT80/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45214.42708333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-kraluv-dvur/ITzMdRhJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45214.4375</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Plzen B</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Povltavska FA</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:18</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/plzen-povltavska-fa/Acl509gf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45214.66666666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Taborsko akademie</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Domazlice</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-domazlice/KYE4LAVJ/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.36</v>
+        <v>3.98</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 15:03</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.98</v>
+        <v>3.36</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 15:03</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.11</v>
+        <v>3.07</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.77</v>
+        <v>4.97</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.86</v>
+        <v>4.46</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>3.07</v>
+        <v>2.11</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4.97</v>
+        <v>2.77</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.46</v>
+        <v>3.86</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,374 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-domazlice/KYE4LAVJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45220.42708333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:37</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:48</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:37</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:53</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:37</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:53</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/loko-vltavin-dukla-prague/jH5zGlgs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45220.4375</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice B</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Domazlice</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:27</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:27</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:27</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-domazlice/QZcmDnw0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45220.4375</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Motorlet Prague</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:37</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:16</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:37</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:16</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:37</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:16</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-motorlet-prague/nqaqESNg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45220.60416666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>FK Robstav</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Plzen B</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:19</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:19</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:19</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/fk-robstav-plzen/YyJ8KUpQ/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FK Robstav</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.55</v>
+        <v>1.82</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.73</v>
+        <v>1.6</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.63</v>
+        <v>4.07</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>3.41</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>4.64</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.82</v>
+        <v>2.55</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.6</v>
+        <v>2.73</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.07</v>
+        <v>3.63</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.41</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.64</v>
+        <v>2.26</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.4</v>
+        <v>2.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>10/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>08/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>10/09/2023 10:13</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>08/09/2023 22:42</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:13</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>08/09/2023 22:42</t>
-        </is>
-      </c>
       <c r="T46" t="n">
-        <v>5.98</v>
+        <v>2.71</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>10/09/2023 10:13</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-plzen/8IcvLtzo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-povltavska-fa/ANyNqQCo/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.32</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:13</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.78</v>
+        <v>4.2</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.53</v>
+        <v>4.99</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.89</v>
+        <v>4.31</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.71</v>
+        <v>5.98</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:13</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-povltavska-fa/ANyNqQCo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-plzen/8IcvLtzo/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.39</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.43</v>
+        <v>3.69</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.77</v>
+        <v>2.47</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>FK Robstav</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.4</v>
+        <v>4.39</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.69</v>
+        <v>4.43</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.47</v>
+        <v>3.77</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.64</v>
+        <v>1.18</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.74</v>
+        <v>1.14</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:25</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.35</v>
+        <v>6.65</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.39</v>
+        <v>8.5</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 08:18</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.22</v>
+        <v>7.79</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.36</v>
+        <v>11.59</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1.18</v>
+        <v>2.64</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.14</v>
+        <v>2.74</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 09:25</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>6.65</v>
+        <v>3.35</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>8.5</v>
+        <v>3.39</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:18</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>7.79</v>
+        <v>2.22</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>11.59</v>
+        <v>2.36</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.95</v>
+        <v>3.74</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:28</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.48</v>
+        <v>3.67</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.74</v>
+        <v>3.95</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:28</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
         </is>
       </c>
     </row>
@@ -9010,6 +9010,374 @@
       <c r="V93" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/fk-robstav-plzen/YyJ8KUpQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45221.42708333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Admira Prague</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Bohemians 1905 B</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:00</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:00</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:00</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-bohemians-1905/WW0eBQ7C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45221.42708333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Slavia Prague B</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Taborsko akademie</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:01</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:01</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:01</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-taborsko-akademie/Eej0ApNI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45221.64583333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Hostoun</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Pisek</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:17</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:17</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-pisek/U74vF88m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45221.64583333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Povltavska FA</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Karlovy Vary</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:37</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:37</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:37</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/povltavska-fa-karlovy-vary/KdciC6h6/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.82</v>
+        <v>2.55</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.6</v>
+        <v>2.73</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.07</v>
+        <v>3.63</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.41</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.64</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FK Robstav</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.55</v>
+        <v>1.82</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.73</v>
+        <v>1.6</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.63</v>
+        <v>4.07</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>3.41</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.26</v>
+        <v>4.64</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.12</v>
+        <v>2.18</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.1</v>
+        <v>2.55</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:11</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.029999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>10.32</v>
+        <v>4.18</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>11.28</v>
+        <v>2.67</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>14.28</v>
+        <v>2.21</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:11</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.18</v>
+        <v>10.32</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.67</v>
+        <v>11.28</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.21</v>
+        <v>14.28</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.98</v>
+        <v>3.36</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 15:03</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.36</v>
+        <v>3.98</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 15:03</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.26</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.4</v>
+        <v>5.29</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.85</v>
+        <v>6.85</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.92</v>
+        <v>6.38</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.61</v>
+        <v>10.22</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Povltavska FA</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5.29</v>
+        <v>4.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>6.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.38</v>
+        <v>5.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>10.22</v>
+        <v>7.12</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>2.26</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.43</v>
+        <v>3.92</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.12</v>
+        <v>2.61</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Vltavin</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.79</v>
+        <v>2.23</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.18</v>
+        <v>3.66</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.79</v>
+        <v>3.94</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Bohemians 1905 B</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.23</v>
+        <v>2.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.66</v>
+        <v>3.18</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.94</v>
+        <v>3.79</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.32</v>
+        <v>1.4</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:13</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.78</v>
+        <v>4.2</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.53</v>
+        <v>4.99</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.89</v>
+        <v>4.31</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.71</v>
+        <v>5.98</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:13</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-povltavska-fa/ANyNqQCo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-plzen/8IcvLtzo/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,48 +4736,48 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.4</v>
+        <v>2.32</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>10/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>08/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
           <t>10/09/2023 10:13</t>
         </is>
       </c>
-      <c r="N47" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O47" t="inlineStr">
+      <c r="R47" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S47" t="inlineStr">
         <is>
           <t>08/09/2023 22:42</t>
         </is>
       </c>
-      <c r="P47" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:13</t>
-        </is>
-      </c>
-      <c r="R47" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>08/09/2023 22:42</t>
-        </is>
-      </c>
       <c r="T47" t="n">
-        <v>5.98</v>
+        <v>2.71</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>10/09/2023 10:13</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-plzen/8IcvLtzo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-povltavska-fa/ANyNqQCo/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>FK Robstav</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.4</v>
+        <v>4.39</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.69</v>
+        <v>4.43</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.47</v>
+        <v>3.77</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.39</v>
+        <v>3.4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.43</v>
+        <v>3.69</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.77</v>
+        <v>2.47</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.18</v>
+        <v>2.64</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.14</v>
+        <v>2.74</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 09:25</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>6.65</v>
+        <v>3.35</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>8.5</v>
+        <v>3.39</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:18</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>7.79</v>
+        <v>2.22</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>11.59</v>
+        <v>2.36</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.64</v>
+        <v>1.18</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.74</v>
+        <v>1.14</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:25</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.35</v>
+        <v>6.65</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.39</v>
+        <v>8.5</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 08:18</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.22</v>
+        <v>7.79</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.36</v>
+        <v>11.59</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.07</v>
+        <v>2.11</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4.97</v>
+        <v>2.77</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.46</v>
+        <v>3.86</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>2.11</v>
+        <v>3.07</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.77</v>
+        <v>4.97</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.86</v>
+        <v>4.46</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.48</v>
+        <v>3.67</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.74</v>
+        <v>3.95</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:28</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.95</v>
+        <v>3.74</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:28</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,742 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/povltavska-fa-karlovy-vary/KdciC6h6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45227.42708333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Motorlet Prague</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>28/10/2023 09:54</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>28/10/2023 09:54</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>28/10/2023 09:54</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-loko-vltavin/t2rnYmFP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45227.42708333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Pisek</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Admira Prague</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:04</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:04</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:04</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-admira-prague/hnk494xP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45227.60416666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Domazlice</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Slavia Prague B</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:15</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:15</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:15</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/domazlice-slavia-prague/QZJISRxm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Karlovy Vary</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>FK Robstav</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:49</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:49</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:49</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/karlovy-vary-fk-robstav/vwOMRohg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45228.42708333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Povltavska FA</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:14</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45228.42708333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bohemians 1905 B</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:07</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:07</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45228.4375</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Plzen B</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice B</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:29</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:28</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:29</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/plzen-ceske-budejovice/rBUDT7Nt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Taborsko akademie</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Hostoun</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:25</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:25</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:25</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-hostoun/CjMUPPM5/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,63 +581,63 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.91</v>
+        <v>1.98</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>03/08/2023 06:12</t>
+          <t>03/08/2023 06:13</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6.38</v>
+        <v>2.04</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>04/08/2023 17:53</t>
+          <t>04/08/2023 17:05</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.95</v>
+        <v>3.53</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>03/08/2023 06:12</t>
+          <t>03/08/2023 06:13</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.81</v>
+        <v>3.69</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>04/08/2023 17:53</t>
+          <t>04/08/2023 17:05</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>2.93</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>03/08/2023 06:12</t>
+          <t>03/08/2023 06:13</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.39</v>
+        <v>3.08</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>04/08/2023 17:53</t>
+          <t>04/08/2023 17:05</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-domazlice/pKjW3Tsd/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-ceske-budejovice/jciS49Sk/</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,63 +673,63 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98</v>
+        <v>3.91</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>03/08/2023 06:13</t>
+          <t>03/08/2023 06:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.04</v>
+        <v>6.38</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:05</t>
+          <t>04/08/2023 17:53</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.53</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>03/08/2023 06:13</t>
+          <t>03/08/2023 06:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.69</v>
+        <v>4.81</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:05</t>
+          <t>04/08/2023 17:53</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.93</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>03/08/2023 06:13</t>
+          <t>03/08/2023 06:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.08</v>
+        <v>1.39</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:05</t>
+          <t>04/08/2023 17:53</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-ceske-budejovice/jciS49Sk/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-domazlice/pKjW3Tsd/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:11</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.18</v>
+        <v>10.32</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.67</v>
+        <v>11.28</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.21</v>
+        <v>14.28</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.1</v>
+        <v>2.55</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:11</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>9.029999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>10.32</v>
+        <v>4.18</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>11.28</v>
+        <v>2.67</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>14.28</v>
+        <v>2.21</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.36</v>
+        <v>3.98</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 15:03</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.98</v>
+        <v>3.36</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 15:03</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>2.26</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.43</v>
+        <v>3.92</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.12</v>
+        <v>2.61</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.26</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.92</v>
+        <v>5.43</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.61</v>
+        <v>7.12</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.11</v>
+        <v>3.07</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.77</v>
+        <v>4.97</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.86</v>
+        <v>4.46</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>3.07</v>
+        <v>2.11</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4.97</v>
+        <v>2.77</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.46</v>
+        <v>3.86</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.72</v>
+        <v>1.22</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 10:05</t>
+          <t>08/10/2023 09:40</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.89</v>
+        <v>5.98</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.31</v>
+        <v>7.94</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 10:05</t>
+          <t>08/10/2023 09:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.45</v>
+        <v>6.85</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.81</v>
+        <v>10.16</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 10:05</t>
+          <t>08/10/2023 09:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-dukla-prague/rm4Q7i1K/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-bohemians-1905/0ObV6BGQ/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.22</v>
+        <v>1.72</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.16</v>
+        <v>1.55</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 09:40</t>
+          <t>08/10/2023 10:05</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>5.98</v>
+        <v>3.89</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>7.94</v>
+        <v>4.31</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 09:51</t>
+          <t>08/10/2023 10:05</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>6.85</v>
+        <v>3.45</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>10.16</v>
+        <v>4.81</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 09:51</t>
+          <t>08/10/2023 10:05</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-bohemians-1905/0ObV6BGQ/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-dukla-prague/rm4Q7i1K/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.39</v>
+        <v>1.36</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.11</v>
+        <v>1.31</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:00</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.45</v>
+        <v>5.36</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.5</v>
+        <v>5.53</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:00</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.66</v>
+        <v>6.11</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.07</v>
+        <v>6.75</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:00</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-bohemians-1905/WW0eBQ7C/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-taborsko-akademie/Eej0ApNI/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.36</v>
+        <v>2.39</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.31</v>
+        <v>2.11</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:00</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>5.36</v>
+        <v>3.45</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>5.53</v>
+        <v>3.5</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:00</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>6.11</v>
+        <v>2.66</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>6.75</v>
+        <v>3.07</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:00</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-taborsko-akademie/Eej0ApNI/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-bohemians-1905/WW0eBQ7C/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.29</v>
+        <v>1.5</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.49</v>
+        <v>4.57</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:05</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.65</v>
+        <v>4.59</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.91</v>
+        <v>3.96</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:06</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.57</v>
+        <v>3.49</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.07</v>
+        <v>3.61</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:05</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.59</v>
+        <v>2.65</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.96</v>
+        <v>2.91</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:06</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,466 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-hostoun/CjMUPPM5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45234.42708333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Hostoun</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Domazlice</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:10</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:10</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:10</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-domazlice/I3iVN3iI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45234.42708333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Bohemians 1905 B</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:14</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:14</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:14</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/loko-vltavin-bohemians-1905/hK8sRZIu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45234.4375</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Pisek</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:27</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:27</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:27</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-pisek/CQjZMN6O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45234.4375</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice B</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Slavia Prague B</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>04/11/2023 09:37</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:25</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:25</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-slavia-prague/WA7oQgYo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>FK Robstav</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/fk-robstav-dukla-prague/QTfwMsMU/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,63 +581,63 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.98</v>
+        <v>3.91</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>03/08/2023 06:13</t>
+          <t>03/08/2023 06:12</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.04</v>
+        <v>6.38</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>04/08/2023 17:05</t>
+          <t>04/08/2023 17:53</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.53</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>03/08/2023 06:13</t>
+          <t>03/08/2023 06:12</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.69</v>
+        <v>4.81</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>04/08/2023 17:05</t>
+          <t>04/08/2023 17:53</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.93</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>03/08/2023 06:13</t>
+          <t>03/08/2023 06:12</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.08</v>
+        <v>1.39</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>04/08/2023 17:05</t>
+          <t>04/08/2023 17:53</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-ceske-budejovice/jciS49Sk/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-domazlice/pKjW3Tsd/</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,63 +673,63 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.91</v>
+        <v>1.98</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>03/08/2023 06:12</t>
+          <t>03/08/2023 06:13</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6.38</v>
+        <v>2.04</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:53</t>
+          <t>04/08/2023 17:05</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>3.53</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>03/08/2023 06:12</t>
+          <t>03/08/2023 06:13</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.81</v>
+        <v>3.69</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:53</t>
+          <t>04/08/2023 17:05</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>2.93</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>03/08/2023 06:12</t>
+          <t>03/08/2023 06:13</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.39</v>
+        <v>3.08</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:53</t>
+          <t>04/08/2023 17:05</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-domazlice/pKjW3Tsd/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-ceske-budejovice/jciS49Sk/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.07</v>
+        <v>2.11</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4.97</v>
+        <v>2.77</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.46</v>
+        <v>3.86</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>2.11</v>
+        <v>3.07</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.77</v>
+        <v>4.97</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.86</v>
+        <v>4.46</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.22</v>
+        <v>1.72</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.16</v>
+        <v>1.55</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 09:40</t>
+          <t>08/10/2023 10:05</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>5.98</v>
+        <v>3.89</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>7.94</v>
+        <v>4.31</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 09:51</t>
+          <t>08/10/2023 10:05</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>6.85</v>
+        <v>3.45</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>10.16</v>
+        <v>4.81</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 09:51</t>
+          <t>08/10/2023 10:05</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-bohemians-1905/0ObV6BGQ/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-dukla-prague/rm4Q7i1K/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.72</v>
+        <v>1.22</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 10:05</t>
+          <t>08/10/2023 09:40</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.89</v>
+        <v>5.98</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.31</v>
+        <v>7.94</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 10:05</t>
+          <t>08/10/2023 09:51</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.45</v>
+        <v>6.85</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.81</v>
+        <v>10.16</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 10:05</t>
+          <t>08/10/2023 09:51</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-dukla-prague/rm4Q7i1K/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-bohemians-1905/0ObV6BGQ/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.35</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 10:13</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.63</v>
+        <v>3.33</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.92</v>
+        <v>2.49</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 10:13</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-hostoun/WCxEbmO6/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-admira-prague/dfp11kvl/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.35</v>
+        <v>1.96</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:13</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.33</v>
+        <v>3.63</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.6</v>
+        <v>3.81</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.49</v>
+        <v>2.92</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:13</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-admira-prague/dfp11kvl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-hostoun/WCxEbmO6/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.36</v>
+        <v>2.39</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.31</v>
+        <v>2.11</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:00</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>5.36</v>
+        <v>3.45</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>5.53</v>
+        <v>3.5</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:00</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>6.11</v>
+        <v>2.66</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>6.75</v>
+        <v>3.07</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:00</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-taborsko-akademie/Eej0ApNI/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-bohemians-1905/WW0eBQ7C/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.39</v>
+        <v>1.36</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.11</v>
+        <v>1.31</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:00</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.45</v>
+        <v>5.36</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.5</v>
+        <v>5.53</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:00</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.66</v>
+        <v>6.11</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.07</v>
+        <v>6.75</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:00</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-bohemians-1905/WW0eBQ7C/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-taborsko-akademie/Eej0ApNI/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Vltavin</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.09</v>
+        <v>2.63</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/10/2023 09:54</t>
+          <t>28/10/2023 10:04</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.48</v>
+        <v>3.78</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.48</v>
+        <v>3.78</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/10/2023 09:54</t>
+          <t>28/10/2023 10:04</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.79</v>
+        <v>3.58</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.12</v>
+        <v>2.27</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/10/2023 09:54</t>
+          <t>28/10/2023 10:04</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-loko-vltavin/t2rnYmFP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-admira-prague/hnk494xP/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Vltavin</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.63</v>
+        <v>2.09</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>28/10/2023 10:04</t>
+          <t>28/10/2023 09:54</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.78</v>
+        <v>3.48</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.78</v>
+        <v>3.48</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>28/10/2023 10:04</t>
+          <t>28/10/2023 09:54</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.58</v>
+        <v>2.79</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.27</v>
+        <v>3.12</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>28/10/2023 10:04</t>
+          <t>28/10/2023 09:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-admira-prague/hnk494xP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-loko-vltavin/t2rnYmFP/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.57</v>
+        <v>3.49</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.07</v>
+        <v>3.61</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:05</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>4.59</v>
+        <v>2.65</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.96</v>
+        <v>2.91</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:06</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.29</v>
+        <v>1.5</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.49</v>
+        <v>4.57</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:05</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.65</v>
+        <v>4.59</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.91</v>
+        <v>3.96</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:06</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.97</v>
+        <v>2.89</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.98</v>
+        <v>3.28</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>04/11/2023 10:27</t>
+          <t>04/11/2023 09:37</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.53</v>
+        <v>4.13</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>04/11/2023 10:27</t>
+          <t>04/11/2023 10:25</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.16</v>
+        <v>2.03</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.37</v>
+        <v>1.85</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>04/11/2023 10:27</t>
+          <t>04/11/2023 10:25</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-pisek/CQjZMN6O/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-slavia-prague/WA7oQgYo/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J109" t="n">
-        <v>2.89</v>
+        <v>1.97</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>3.28</v>
+        <v>1.98</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>04/11/2023 09:37</t>
+          <t>04/11/2023 10:27</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>4.13</v>
+        <v>3.53</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>04/11/2023 10:25</t>
+          <t>04/11/2023 10:27</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.03</v>
+        <v>3.16</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>1.85</v>
+        <v>3.37</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>04/11/2023 10:25</t>
+          <t>04/11/2023 10:27</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-slavia-prague/WA7oQgYo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-pisek/CQjZMN6O/</t>
         </is>
       </c>
     </row>
@@ -10574,6 +10574,282 @@
       <c r="V110" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/fk-robstav-dukla-prague/QTfwMsMU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45235.42708333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Admira Prague</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Taborsko akademie</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:41</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:41</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:41</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:41</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:41</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:41</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-taborsko-akademie/Ma0bNiI4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45235.4375</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Plzen B</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Karlovy Vary</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:41</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:41</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:30</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:30</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:41</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:41</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/plzen-karlovy-vary/vyBgOX2b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Povltavska FA</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Motorlet Prague</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:03</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:03</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:03</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/povltavska-fa-motorlet-prague/0pCkPDmh/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.12</v>
+        <v>2.18</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.1</v>
+        <v>2.55</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:11</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.029999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>10.32</v>
+        <v>4.18</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>11.28</v>
+        <v>2.67</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>14.28</v>
+        <v>2.21</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:11</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.18</v>
+        <v>10.32</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.67</v>
+        <v>11.28</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.21</v>
+        <v>14.28</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>2.26</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>5.29</v>
+        <v>4.4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>6.85</v>
+        <v>3.85</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.38</v>
+        <v>3.92</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.22</v>
+        <v>2.61</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.26</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.92</v>
+        <v>5.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.61</v>
+        <v>7.12</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.55</v>
+        <v>5.29</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.09</v>
+        <v>6.85</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.43</v>
+        <v>6.38</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.12</v>
+        <v>10.22</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.95</v>
+        <v>3.74</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:28</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 10:21</t>
+          <t>07/10/2023 10:14</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.48</v>
+        <v>3.67</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.74</v>
+        <v>3.95</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:28</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.12</v>
+        <v>3.59</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 10:14</t>
+          <t>07/10/2023 10:21</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-karlovy-vary/WhASnjPf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-taborsko-akademie/4d5M8XoE/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.29</v>
+        <v>1.5</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.49</v>
+        <v>4.57</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:05</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.65</v>
+        <v>4.59</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.91</v>
+        <v>3.96</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:06</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.57</v>
+        <v>3.49</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.07</v>
+        <v>3.61</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:05</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.59</v>
+        <v>2.65</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.96</v>
+        <v>2.91</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:06</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,190 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/povltavska-fa-motorlet-prague/0pCkPDmh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45240.75</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Pisek</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:33</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:33</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-loko-vltavin/Sd36LVnH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45240.77083333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Karlovy Vary</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice B</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:20</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/karlovy-vary-ceske-budejovice/Ei8QQQOd/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.26</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.4</v>
+        <v>5.29</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.85</v>
+        <v>6.85</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.92</v>
+        <v>6.38</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.61</v>
+        <v>10.22</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>2.26</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.43</v>
+        <v>3.92</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.12</v>
+        <v>2.61</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Povltavska FA</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.29</v>
+        <v>4.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>6.38</v>
+        <v>5.43</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>10.22</v>
+        <v>7.12</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>3</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Bohemians 1905 B</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.23</v>
+        <v>2.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.66</v>
+        <v>3.18</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.94</v>
+        <v>3.79</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Vltavin</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.79</v>
+        <v>2.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.18</v>
+        <v>3.66</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.79</v>
+        <v>3.94</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.39</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.43</v>
+        <v>3.69</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.77</v>
+        <v>2.47</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>FK Robstav</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.4</v>
+        <v>4.39</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.69</v>
+        <v>4.43</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.47</v>
+        <v>3.77</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.56</v>
+        <v>3.17</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.47</v>
+        <v>5.08</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:05</t>
+          <t>17/09/2023 10:11</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.16</v>
+        <v>3.75</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.59</v>
+        <v>4.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:06</t>
+          <t>17/09/2023 10:11</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.01</v>
+        <v>1.86</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.3</v>
+        <v>1.51</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:05</t>
+          <t>17/09/2023 10:10</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-pisek/MulYtOd4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-domazlice/WENHYa4p/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.17</v>
+        <v>1.56</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5.08</v>
+        <v>1.47</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17/09/2023 10:11</t>
+          <t>17/09/2023 10:05</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.75</v>
+        <v>4.16</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>17/09/2023 10:11</t>
+          <t>17/09/2023 10:06</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.86</v>
+        <v>4.01</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.51</v>
+        <v>5.3</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17/09/2023 10:10</t>
+          <t>17/09/2023 10:05</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-domazlice/WENHYa4p/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-pisek/MulYtOd4/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.83</v>
+        <v>3.36</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.59</v>
+        <v>3.19</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 10:21</t>
+          <t>23/09/2023 10:26</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.4</v>
+        <v>4.02</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 10:21</t>
+          <t>23/09/2023 10:26</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.15</v>
+        <v>1.76</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.35</v>
+        <v>1.91</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 10:21</t>
+          <t>23/09/2023 10:26</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-pisek/QX6KhLeG/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-fk-robstav/I73CfsR3/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FK Robstav</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>3.36</v>
+        <v>1.83</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.19</v>
+        <v>1.59</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>23/09/2023 10:26</t>
+          <t>23/09/2023 10:21</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.79</v>
+        <v>3.75</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.02</v>
+        <v>4.4</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>23/09/2023 10:26</t>
+          <t>23/09/2023 10:21</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.76</v>
+        <v>3.15</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.91</v>
+        <v>4.35</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 10:26</t>
+          <t>23/09/2023 10:21</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-fk-robstav/I73CfsR3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-pisek/QX6KhLeG/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.35</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:13</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.33</v>
+        <v>3.63</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.6</v>
+        <v>3.81</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.49</v>
+        <v>2.92</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 10:13</t>
+          <t>14/10/2023 10:10</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-admira-prague/dfp11kvl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-hostoun/WCxEbmO6/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.96</v>
+        <v>2.35</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 10:13</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.63</v>
+        <v>3.33</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.92</v>
+        <v>2.49</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>14/10/2023 10:10</t>
+          <t>14/10/2023 10:13</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-hostoun/WCxEbmO6/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-admira-prague/dfp11kvl/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.57</v>
+        <v>3.49</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.07</v>
+        <v>3.61</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:05</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>4.59</v>
+        <v>2.65</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.96</v>
+        <v>2.91</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:06</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.29</v>
+        <v>1.5</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.49</v>
+        <v>4.57</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:05</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.65</v>
+        <v>4.59</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.91</v>
+        <v>3.96</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:06</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,282 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/karlovy-vary-ceske-budejovice/Ei8QQQOd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45241.42708333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Motorlet Prague</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>FK Robstav</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>10/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:07</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>10/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:07</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>10/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:07</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-fk-robstav/YZ32MBXA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Domazlice</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>5</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Admira Prague</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/domazlice-admira-prague/0lKr2snd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Taborsko akademie</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-kraluv-dvur/SfCUPpv3/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FK Robstav</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.55</v>
+        <v>1.82</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.73</v>
+        <v>1.6</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.63</v>
+        <v>4.07</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>3.41</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>4.64</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.82</v>
+        <v>2.55</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.6</v>
+        <v>2.73</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.07</v>
+        <v>3.63</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.41</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.64</v>
+        <v>2.26</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:11</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.18</v>
+        <v>10.32</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.67</v>
+        <v>11.28</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.21</v>
+        <v>14.28</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.1</v>
+        <v>2.55</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:11</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>9.029999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>10.32</v>
+        <v>4.18</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>11.28</v>
+        <v>2.67</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>14.28</v>
+        <v>2.21</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.98</v>
+        <v>3.36</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 15:03</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.36</v>
+        <v>3.98</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 15:03</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>2.26</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>5.29</v>
+        <v>4.4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>6.85</v>
+        <v>3.85</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.38</v>
+        <v>3.92</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.22</v>
+        <v>2.61</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.26</v>
+        <v>1.2</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>5.29</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.85</v>
+        <v>6.85</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.92</v>
+        <v>6.38</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.61</v>
+        <v>10.22</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Vltavin</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>01/09/2023 16:17</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.91</v>
+        <v>3.67</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 08:16</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3576,12 +3576,12 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>01/09/2023 16:17</t>
+          <t>02/09/2023 10:14</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-bohemians-1905/fikIFob5/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/loko-vltavin-admira-prague/z5NvXnTu/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vltavin</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>01/09/2023 16:17</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.32</v>
+        <v>3.57</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.67</v>
+        <v>3.91</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>02/09/2023 08:16</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>02/09/2023 10:14</t>
+          <t>01/09/2023 16:17</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/loko-vltavin-admira-prague/z5NvXnTu/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-bohemians-1905/fikIFob5/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>FK Robstav</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.4</v>
+        <v>4.39</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.69</v>
+        <v>4.43</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.47</v>
+        <v>3.77</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.39</v>
+        <v>3.4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.43</v>
+        <v>3.69</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.77</v>
+        <v>2.47</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>3.17</v>
+        <v>1.56</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5.08</v>
+        <v>1.47</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:11</t>
+          <t>17/09/2023 10:05</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.75</v>
+        <v>4.16</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:11</t>
+          <t>17/09/2023 10:06</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.86</v>
+        <v>4.01</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.51</v>
+        <v>5.3</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:10</t>
+          <t>17/09/2023 10:05</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-domazlice/WENHYa4p/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-pisek/MulYtOd4/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.56</v>
+        <v>3.17</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.47</v>
+        <v>5.08</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17/09/2023 10:05</t>
+          <t>17/09/2023 10:11</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.16</v>
+        <v>3.75</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.59</v>
+        <v>4.43</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>17/09/2023 10:06</t>
+          <t>17/09/2023 10:11</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.01</v>
+        <v>1.86</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.3</v>
+        <v>1.51</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17/09/2023 10:05</t>
+          <t>17/09/2023 10:10</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-pisek/MulYtOd4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-domazlice/WENHYa4p/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FK Robstav</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>3.36</v>
+        <v>1.83</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.19</v>
+        <v>1.59</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>23/09/2023 10:26</t>
+          <t>23/09/2023 10:21</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.79</v>
+        <v>3.75</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.02</v>
+        <v>4.4</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23/09/2023 10:26</t>
+          <t>23/09/2023 10:21</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.76</v>
+        <v>3.15</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.91</v>
+        <v>4.35</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>23/09/2023 10:26</t>
+          <t>23/09/2023 10:21</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-fk-robstav/I73CfsR3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-pisek/QX6KhLeG/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.83</v>
+        <v>3.36</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.59</v>
+        <v>3.19</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>23/09/2023 10:21</t>
+          <t>23/09/2023 10:26</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.4</v>
+        <v>4.02</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>23/09/2023 10:21</t>
+          <t>23/09/2023 10:26</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.15</v>
+        <v>1.76</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.35</v>
+        <v>1.91</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>23/09/2023 10:21</t>
+          <t>23/09/2023 10:26</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-pisek/QX6KhLeG/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-fk-robstav/I73CfsR3/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.64</v>
+        <v>1.18</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.74</v>
+        <v>1.14</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:25</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.35</v>
+        <v>6.65</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.39</v>
+        <v>8.5</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24/09/2023 08:18</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.22</v>
+        <v>7.79</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.36</v>
+        <v>11.59</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>24/09/2023 08:16</t>
+          <t>24/09/2023 09:30</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1.18</v>
+        <v>2.64</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.14</v>
+        <v>2.74</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>24/09/2023 09:25</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>6.65</v>
+        <v>3.35</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>8.5</v>
+        <v>3.39</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:18</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>7.79</v>
+        <v>2.22</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>11.59</v>
+        <v>2.36</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>24/09/2023 09:30</t>
+          <t>24/09/2023 08:16</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.11</v>
+        <v>3.07</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.77</v>
+        <v>4.97</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.86</v>
+        <v>4.46</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:12</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>3.07</v>
+        <v>2.11</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4.97</v>
+        <v>2.77</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.46</v>
+        <v>3.86</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 10:12</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-domazlice/dEjv9ttc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-hostoun/OS6KlCfr/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.72</v>
+        <v>2.49</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>20/10/2023 23:12</t>
+          <t>21/10/2023 08:37</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>4.03</v>
+        <v>2.56</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>21/10/2023 10:27</t>
+          <t>21/10/2023 10:16</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>20/10/2023 23:12</t>
+          <t>21/10/2023 08:37</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>21/10/2023 10:27</t>
+          <t>21/10/2023 10:16</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.25</v>
+        <v>2.56</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>20/10/2023 23:12</t>
+          <t>21/10/2023 08:37</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.7</v>
+        <v>2.57</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>21/10/2023 10:27</t>
+          <t>21/10/2023 10:16</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-domazlice/QZcmDnw0/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-motorlet-prague/nqaqESNg/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Domazlice</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>2</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Motorlet Prague</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.49</v>
+        <v>2.72</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>21/10/2023 08:37</t>
+          <t>20/10/2023 23:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>21/10/2023 10:16</t>
+          <t>21/10/2023 10:27</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>21/10/2023 08:37</t>
+          <t>20/10/2023 23:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>21/10/2023 10:16</t>
+          <t>21/10/2023 10:27</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.56</v>
+        <v>2.25</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>21/10/2023 08:37</t>
+          <t>20/10/2023 23:12</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.57</v>
+        <v>1.7</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>21/10/2023 10:16</t>
+          <t>21/10/2023 10:27</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-motorlet-prague/nqaqESNg/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-domazlice/QZcmDnw0/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.29</v>
+        <v>1.5</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.49</v>
+        <v>4.57</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:05</t>
+          <t>29/10/2023 10:07</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.65</v>
+        <v>4.59</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.91</v>
+        <v>3.96</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 10:14</t>
+          <t>29/10/2023 10:06</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.57</v>
+        <v>3.49</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.07</v>
+        <v>3.61</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:07</t>
+          <t>29/10/2023 10:05</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.59</v>
+        <v>2.65</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.96</v>
+        <v>2.91</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 10:06</t>
+          <t>29/10/2023 10:14</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-kraluv-dvur/YaNQQ57a/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-povltavska-fa/vDhROqxC/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Vltavin</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>04/11/2023 10:10</t>
+          <t>04/11/2023 10:14</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.43</v>
+        <v>3.59</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.59</v>
+        <v>3.37</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>04/11/2023 10:10</t>
+          <t>04/11/2023 10:14</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.66</v>
+        <v>3.16</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.43</v>
+        <v>3.37</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>04/11/2023 10:10</t>
+          <t>04/11/2023 10:14</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-domazlice/I3iVN3iI/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/loko-vltavin-bohemians-1905/hK8sRZIu/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vltavin</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,48 +10256,48 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>04/11/2023 10:14</t>
+          <t>04/11/2023 10:10</t>
         </is>
       </c>
       <c r="N107" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
         <v>3.59</v>
       </c>
-      <c r="O107" t="inlineStr">
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:10</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S107" t="inlineStr">
         <is>
           <t>04/11/2023 00:42</t>
         </is>
       </c>
-      <c r="P107" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>04/11/2023 10:14</t>
-        </is>
-      </c>
-      <c r="R107" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>04/11/2023 00:42</t>
-        </is>
-      </c>
       <c r="T107" t="n">
-        <v>3.37</v>
+        <v>2.43</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>04/11/2023 10:14</t>
+          <t>04/11/2023 10:10</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/loko-vltavin-bohemians-1905/hK8sRZIu/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-domazlice/I3iVN3iI/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J108" t="n">
-        <v>2.89</v>
+        <v>1.97</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.28</v>
+        <v>1.98</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>04/11/2023 09:37</t>
+          <t>04/11/2023 10:27</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4.13</v>
+        <v>3.53</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>04/11/2023 10:25</t>
+          <t>04/11/2023 10:27</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.03</v>
+        <v>3.16</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>1.85</v>
+        <v>3.37</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>04/11/2023 10:25</t>
+          <t>04/11/2023 10:27</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-slavia-prague/WA7oQgYo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-pisek/CQjZMN6O/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.97</v>
+        <v>2.89</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.98</v>
+        <v>3.28</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>04/11/2023 10:27</t>
+          <t>04/11/2023 09:37</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.53</v>
+        <v>4.13</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>04/11/2023 10:27</t>
+          <t>04/11/2023 10:25</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.16</v>
+        <v>2.03</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.37</v>
+        <v>1.85</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>04/11/2023 10:27</t>
+          <t>04/11/2023 10:25</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-pisek/CQjZMN6O/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-slavia-prague/WA7oQgYo/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,282 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-kraluv-dvur/SfCUPpv3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45242.42708333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Plzen B</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:00</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>12/11/2023 09:56</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:00</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-plzen/AJ1ZO4g9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45242.42708333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Slavia Prague B</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Hostoun</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>12/11/2023 09:48</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>12/11/2023 09:51</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>8</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>12/11/2023 09:48</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-hostoun/4MQZ33Hq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Povltavska FA</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Bohemians 1905 B</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/povltavska-fa-bohemians-1905/McLv3NWk/</t>
         </is>
       </c>
     </row>
